--- a/CodeSystem-diagnosesicherung-icd-o-3.xlsx
+++ b/CodeSystem-diagnosesicherung-icd-o-3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
